--- a/tl/S50001.MES.BIN.xlsx
+++ b/tl/S50001.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC60C6-CF5B-4471-A2AC-3E9B6124E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A275D54-9241-4AAB-9ACB-24F8597BA74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="6630" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="16200" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S50001.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="137">
   <si>
     <t>Status</t>
   </si>
@@ -53,9 +53,15 @@
     <t>Touya</t>
   </si>
   <si>
+    <t>Maybe it's okay to stop here for today...</t>
+  </si>
+  <si>
     <t>Well, I guess we can just call it a day now.</t>
   </si>
   <si>
+    <t>Drop the 'already' because it sounds very awkward.</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -71,7 +77,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Mana-chan happily starts putting away her writing materials.</t>
+    <t>Mana-chan happily begins to tidy up her writing utensils.</t>
   </si>
   <si>
     <t>Mana-chan happily starts putting away her stationery.</t>
@@ -80,6 +86,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>Although I feel unsatisfied, I realize I can't do anything more after having been shown such perfect academic abilities.</t>
+  </si>
+  <si>
     <t>Although something doesn't feel quite right, there's nothing else I can do after she showed off her perfect academic skills.</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
     <t>Next time I have to come up with a proper plan...</t>
   </si>
   <si>
+    <t>Original text used "menu"</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -113,24 +125,36 @@
     <t>17</t>
   </si>
   <si>
+    <t>It's not from a CD...</t>
+  </si>
+  <si>
     <t>Not a CD...</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>It's FM...?</t>
+  </si>
+  <si>
     <t>Is it FM...?</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>I start to relax a bit to the music, which is perfect for the afternoon.</t>
+  </si>
+  <si>
     <t>I'm feeling a bit relaxed with this music that's just right for the afternoon.</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t>Well, maybe it's okay to enjoy the holiday feeling today...</t>
+  </si>
+  <si>
     <t>Well, might as well enjoy the feeling of a day off today...</t>
   </si>
   <si>
@@ -140,6 +164,9 @@
     <t>25</t>
   </si>
   <si>
+    <t>Holiday...</t>
+  </si>
+  <si>
     <t>Day off...</t>
   </si>
   <si>
@@ -164,7 +191,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>Hm?</t>
+    <t>Hm-?</t>
   </si>
   <si>
     <t>35</t>
@@ -182,42 +209,60 @@
     <t>39</t>
   </si>
   <si>
+    <t>It's a voluntary day off...</t>
+  </si>
+  <si>
     <t>It's a voluntary school day off...</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>...Even so, you're a student taking exams...</t>
+    <t>...Even so, you're a student preparing for exams...</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
+    <t>You're so noisy. It's fine as long as I can study properly, right?</t>
+  </si>
+  <si>
     <t>Oh come on. I can study just fine, right?</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>The test earlier, wasn't that the point of it? And since I was able to do it properly, there's no reason to complain, right?</t>
+  </si>
+  <si>
     <t>Wasn't that the point of the test earlier? I did well, so what's the problem?</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
+    <t>There's no reason to complain, but...</t>
+  </si>
+  <si>
     <t>There's no problem, but...</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
+    <t>...What is it-?</t>
+  </si>
+  <si>
     <t>...What is it?</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
+    <t>N-never mind...</t>
+  </si>
+  <si>
     <t>N-no...</t>
   </si>
   <si>
@@ -230,30 +275,45 @@
     <t>55</t>
   </si>
   <si>
+    <t>It's okay. I'll go shopping or something a while later.</t>
+  </si>
+  <si>
     <t>It's okay. Let's go shopping or something in a little bit.</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
+    <t>-I don't want to be cooped up inside the house all day.</t>
+  </si>
+  <si>
     <t>I'm not just going to stay cooped up inside the house all day.</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
+    <t>That's not what this is about.</t>
+  </si>
+  <si>
     <t>That's not what I'm talking about though.</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
+    <t>...So, your mother or anyone else doesn't say anything?</t>
+  </si>
+  <si>
     <t>...So, your mom or anyone else doesn't say anything about it?</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
+    <t>She doesn't say anything, not to me...</t>
+  </si>
+  <si>
     <t>They haven't, not to me...</t>
   </si>
   <si>
@@ -266,6 +326,9 @@
     <t>67</t>
   </si>
   <si>
+    <t>...Be quiet for a bit, Touya-san. ......I can't hear the music...</t>
+  </si>
+  <si>
     <t>...Shh, Fujii-san. I can't hear the song.</t>
   </si>
   <si>
@@ -278,12 +341,18 @@
     <t>71</t>
   </si>
   <si>
+    <t>I may have been a bit too intrusive.</t>
+  </si>
+  <si>
     <t>I think I went a bit too far...</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
+    <t>I obediently say quiet and listen to the radio.</t>
+  </si>
+  <si>
     <t>I listen to the radio quietly.</t>
   </si>
   <si>
@@ -323,12 +392,18 @@
     <t>85</t>
   </si>
   <si>
+    <t>Well, sort of...</t>
+  </si>
+  <si>
     <t>Well, kinda...</t>
   </si>
   <si>
     <t>87</t>
   </si>
   <si>
+    <t>I give a vague answer.</t>
+  </si>
+  <si>
     <t>I just give a vague answer.</t>
   </si>
   <si>
@@ -341,13 +416,16 @@
     <t>91</t>
   </si>
   <si>
+    <t>After a short while, Mana-chan says,</t>
+  </si>
+  <si>
     <t>After a moment, Mana-chan says,</t>
   </si>
   <si>
     <t>93</t>
   </si>
   <si>
-    <t>I see. Alright then.</t>
+    <t>Yeah. I wonder if it's okay.</t>
   </si>
 </sst>
 </file>
@@ -769,9 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -830,13 +906,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -850,13 +926,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -865,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>9</v>
@@ -882,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -894,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -914,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -926,10 +1002,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>9</v>
@@ -946,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -961,10 +1037,10 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -978,22 +1054,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -1010,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1025,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -1042,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1057,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1074,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1086,10 +1162,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1106,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1118,10 +1194,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1138,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1150,10 +1226,10 @@
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1170,7 +1246,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1182,13 +1258,13 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>9</v>
@@ -1202,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1214,10 +1290,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1234,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1249,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1266,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1281,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1298,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -1313,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1330,13 +1406,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1345,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1362,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
@@ -1377,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
@@ -1394,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1409,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1426,22 +1502,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1458,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -1473,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1490,22 +1566,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1522,22 +1598,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1554,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -1566,10 +1642,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1586,22 +1662,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1618,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
@@ -1630,10 +1706,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -1650,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1665,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -1682,22 +1758,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -1714,22 +1790,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -1746,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
@@ -1758,10 +1834,10 @@
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -1778,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1790,10 +1866,10 @@
         <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -1810,22 +1886,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -1842,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1857,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -1874,22 +1950,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -1906,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -1921,7 +1997,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -1938,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -1950,10 +2026,10 @@
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -1970,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1982,10 +2058,10 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2002,13 +2078,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
@@ -2017,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2034,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2049,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2066,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
@@ -2081,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2098,13 +2174,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
@@ -2113,10 +2189,10 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>9</v>
@@ -2130,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -2145,7 +2221,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2162,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2174,10 +2250,10 @@
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2194,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -2206,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2226,13 +2302,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
@@ -2241,7 +2317,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -2258,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -2270,10 +2346,10 @@
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -2290,13 +2366,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
@@ -2305,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
